--- a/BTVN/Assignment 3/Assignment 3.xlsx
+++ b/BTVN/Assignment 3/Assignment 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trong\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T2207_LBEP_Sync\T2207_LBEP_Sync\BTVN\Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2055,7 +2055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91439</xdr:colOff>
+      <xdr:colOff>69273</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>34106</xdr:rowOff>
     </xdr:to>
@@ -2067,7 +2067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6026727" y="16237527"/>
-          <a:ext cx="1407621" cy="1059343"/>
+          <a:ext cx="1385455" cy="1059343"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2191,7 +2191,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91439</xdr:colOff>
+      <xdr:colOff>69273</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>40872</xdr:rowOff>
     </xdr:to>
@@ -2205,13 +2205,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6227657" y="17260726"/>
-          <a:ext cx="1700218" cy="713164"/>
+          <a:off x="6216574" y="17271809"/>
+          <a:ext cx="1700218" cy="690998"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val -13445"/>
-            <a:gd name="adj2" fmla="val 188392"/>
+            <a:gd name="adj2" fmla="val 133083"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2240,14 +2240,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110837</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>34106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>112566</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>34106</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>166255</xdr:rowOff>
     </xdr:to>
@@ -2260,9 +2260,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6721184" y="17296870"/>
-          <a:ext cx="9354" cy="520076"/>
+        <a:xfrm>
+          <a:off x="6719455" y="17296870"/>
+          <a:ext cx="1729" cy="520076"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2294,7 +2294,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>131619</xdr:colOff>
+      <xdr:colOff>145473</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -2302,7 +2302,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>146099</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>166255</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2314,8 +2314,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6740237" y="14699673"/>
-          <a:ext cx="14480" cy="401782"/>
+          <a:off x="6754091" y="14699673"/>
+          <a:ext cx="626" cy="387927"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2347,13 +2347,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>193964</xdr:colOff>
+      <xdr:colOff>124691</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>133003</xdr:colOff>
+      <xdr:colOff>235527</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>47961</xdr:rowOff>
     </xdr:to>
@@ -2364,8 +2364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6068291" y="18966873"/>
-          <a:ext cx="1407621" cy="1059343"/>
+          <a:off x="5999018" y="18966873"/>
+          <a:ext cx="1579418" cy="1059343"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2415,13 +2415,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>124692</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>86326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>193964</xdr:colOff>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>100181</xdr:rowOff>
     </xdr:to>
@@ -2434,13 +2434,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="6026727" y="16767199"/>
-          <a:ext cx="41564" cy="2729346"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5999019" y="16767199"/>
+          <a:ext cx="27709" cy="2729346"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2116649"/>
+            <a:gd name="adj1" fmla="val 925003"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2470,13 +2470,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>163484</xdr:colOff>
+      <xdr:colOff>166256</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>47961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>166256</xdr:colOff>
+      <xdr:colOff>180109</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>69274</xdr:rowOff>
     </xdr:to>
@@ -2489,9 +2489,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6772102" y="20026216"/>
-          <a:ext cx="2772" cy="603203"/>
+        <a:xfrm flipH="1">
+          <a:off x="6774874" y="20026216"/>
+          <a:ext cx="13853" cy="603203"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2696,7 +2696,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>133003</xdr:colOff>
+      <xdr:colOff>235527</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>100181</xdr:rowOff>
     </xdr:from>
@@ -2716,8 +2716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7475912" y="19496545"/>
-          <a:ext cx="2880362" cy="1132873"/>
+          <a:off x="7578436" y="19496545"/>
+          <a:ext cx="2777838" cy="1132873"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2748,16 +2748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>96982</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>623455</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>166255</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>166255</xdr:colOff>
+      <xdr:colOff>401782</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>152996</xdr:rowOff>
+      <xdr:rowOff>139141</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2766,8 +2766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5237018" y="15101455"/>
-          <a:ext cx="3006437" cy="568632"/>
+          <a:off x="5029200" y="15087600"/>
+          <a:ext cx="3449782" cy="568632"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst/>
@@ -2817,13 +2817,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>110837</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>152996</xdr:rowOff>
+      <xdr:rowOff>139141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>131619</xdr:colOff>
+      <xdr:colOff>145473</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
@@ -2837,8 +2837,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6730538" y="15670087"/>
-          <a:ext cx="9699" cy="567440"/>
+          <a:off x="6719455" y="15656232"/>
+          <a:ext cx="34636" cy="581295"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3241,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F20:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
